--- a/Docs/2015-TH-XLP-ChallengeModules.xlsx
+++ b/Docs/2015-TH-XLP-ChallengeModules.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="19200" windowHeight="11430"/>
+    <workbookView xWindow="0" yWindow="300" windowWidth="19200" windowHeight="11440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="225">
   <si>
     <t>第1天</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,14 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>评分规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>得分点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>参与人员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,10 +84,6 @@
   </si>
   <si>
     <t>任务方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、是否按照规程进行设计与上传2、是否在规定时间前上传成果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -333,10 +326,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>得分点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3D打印机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -437,10 +426,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>得分点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>计分组记录分数并发布</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -578,10 +563,6 @@
   </si>
   <si>
     <t>注意时间控制（超时会“挂彩”）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>得分点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -779,6 +760,934 @@
   </si>
   <si>
     <t>发布会主持人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按时到达（2分）
+迟到者不得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">每人填写调查问卷，截止时间23:00，延时者不得分（2分）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+每个人都撰写600字以上的日志到toyhouse，
+截止日期为23:00。延时者不得分（3分）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按时到达（2分）
+迟到者不得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据顾老师的点评打分（20分）
+严格控制时间在要求时间之内，超时者不得分（5分）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据顾老师的点评打分（25分）
+严格控制时间在要求时间之内，超时者不得分（5分）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">所有成员必须统一参与一次整组讨论，进行分工
+讨论过程中必须使用罗伯特议事规则，635书面头
+脑风暴模版和商业模式画布三种工具。（5分）
+讨论过程中各成员参与度、发言质量。（5分）
+必须持有会议展开的记录（文字，相片，视频等）
+并且上传至teambition"清华大学 2015XLP"的
+\会议记录\任务方合组\某时间段内会议（2分）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>发布会整体效果（10分  所有人统一给分）
+宪章组（20分）根据最终结果给分 不包括通过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>雇佣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+方式工作等原本不在分工文档中的成员
+微电影组（20分）根据最终结果给分 不包括通过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>雇佣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+方式工作等原本不在分工文档中的成员
+网页组（20分）根据最终结果给分 不包括通过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>雇佣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+方式工作等原本不在分工文档中的成员
+实物组（20分）根据最终结果给分 不包括通过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>雇佣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+方式工作等原本不在分工文档中的成员
+若筹备组专干，则筹备组根据最终发布会效果专门给分（20分）否则，则按照原组成绩给分
+最佳个人奖：根据得分情况，参与度，活跃度等等各种因素评判
+得奖者得5分</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评分总分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评分细则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 开场仪式是否迟到（3分）
+ 是否违反现场秩序（2分）
+ 服装是否得体（1分）
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t> 各小组设计自己的小组logo 记分组综合logo设计
+的创意、美观等因素对其进行评分（5分）         
+可以使用3D打印制作出实物，记分组根据实物
+制作情况给分。（3分）
+若有实物制作，必须在当天17:00前完
+成若延时上交，其3分满分降为2分
+不制作实物不得分，也不扣分</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>讨论过程中必须使用罗伯特议事规则，635书面头
+脑风暴模版和商业模式画布三种工具。（7分）
+各成员参与度、发言质量。（5分）
+故事版以ppt格式，上交至teambition"清华大学2015
+ XLP"项目中的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\宪章故事版\第一次分组\第X组\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文件夹中
+截止日期为2015年1月26日12:00。延时上交者不得分（3分）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> Git技术团队依据团队现场游戏排名来计分，团队得分即为个人得分
+   第1名8分，第二名7分以此类推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>讨论过程中必须使用罗伯特议事规则，635书面头
+脑风暴模版和商业模式画布三种工具。（5分）
+讨论过程中各成员参与度、发言质量。（5分）
+每个小组都必须持有会议展开的记录（文字，相片，视频等）
+并且上传至teambition"清华大学 2015XLP"
+的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\会议记录\第一次分组\第X组\某时间段内会议</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">（2分）
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每人填写调查问卷，截止时间23:00，延时者不得分（2分）
+每个人都撰写600字以上的日志到toyhouse，
+截止日期为23:00。延时者不得分（3分）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">每人填写调查问卷，截止时间23:00，延时者不得分（2分）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+每个人都撰写600字以上的日志到toyhouse，
+截止日期为23:00。延时者不得分（3分）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩排整体效果（整体统一给分  5分）
+各成员参与度，活跃度（5分）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有给分都以个人得分形式给出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            每组必须有且仅有一个项目经理        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>团队组建</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  第一次分组3分 
+上传第一次分组后项目经理将本组任务分工文档到teambition"清华大学2015 XLP"项目中的\团队组建\第一次分组\第X组\文件夹中。截止日期2015年1月26日13:00  延时组全组成员不得分（3分）                                                                                     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>teambition任务发布</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3分
+项目经理在teambition “清华大学2015 XLP”项目的各自小组任务栏中发布任务，接受任务的成员在完成任务时通过teambition对任务反馈
+项目经理必须通过teambition给每个人发布命令，少一人少得1分，每天最少1条，组员对给自己的任务进行反馈，有几条任务没有反馈，就少得几分，直至当天本项得分为零为止。截止到24:00。
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在之后的每一次讨论中，各组都必须使用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>罗伯特议事规则，635书面头脑风暴模版和商业模式画布讲解</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+此三种工具。记分员将以此为开会评分的其中一部分依据</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>货币市场交易记分（40分）分为三部分
+1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>交易总金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（20分）：所有收税交易对应的金
+额总和为交易总金额
+交易总金额给分规则：以交易次数最多者为100%，该人得15分，交易次数在90%~100%之间的得13.5分，以此类推
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>货币剩余量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（20分）：最后活动结束时每个人手头的货币剩余量
+货币剩余量给分规则：以货币剩余量最多者为100%，该人得20分，交易次数在90%~100%之间的得18分，以此类推</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若在过程中任务方发生法律纠纷，未按照规定的法律章程进行处理，则积分组将酌情扣分。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">之后的工作将在git上展开
+Git使用情况（40分）
+git记录次数和频率（15）
+git上有效数据贡献（25）                                                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上传注册信息和在Git上建立小组项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+（共6分  第一次分组3分 第二次分组3分）
+ 第一次分组后各组项目经理把组内成员的teambition账号，Git账号,（修改用户名为自己的姓名），小组项目地址，分组编号上传到teambition的“清华大学2015 XLP”项目的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\任务方账号\第一次分组\第X组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文件夹内。上传文档为Excel格式。截止日期2015年1月26日17:30 延时组全组成员不得分（3分）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记分组在23:00左右公布当天“最佳小组”
+“最佳小组”为综合git使用状况，货币
+交易情况，各小组成员的得分情况而定。
+获得最佳小组队伍每人得5分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teambition任务发布
+3分
+项目经理在teambition “清华大学2015 XLP”项目的各自小组任务栏中发布任务，接受任务的成员在完成任务时通过teambition对任务反馈
+项目经理必须通过teambition给每个人发布命令，少一人少得1分，每天最少1条，组员对给自己的任务进行反馈，有几条任务没有反馈，就少得几分，直至当天本项得分为零为止。截止到24:00。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">每组必须有且仅有一个项目经理
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+团队组建</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+（共6分  第一次分组3分 第二次分组3分） 
+上传第二次分组后的任务分工文档到teambition"清华大学2015 XLP"项目中的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\团队组建\第二次分组\第X组\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">文件夹中。截止日期2015年1月27日12:00  延时组不得分（3分）
+                                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上传注册信息和在Git上建立小组项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+（共6分  第一次分组3分 第二次分组3分）
+ 第二次分组后各组项目经理把组内成员的teambition账号，Git账号,（修改用户名为自己的姓名），小组项目地址，分组编号上传到teambition的“清华大学2015 XLP”项目的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\任务方账号\第二次分组\第X组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">文件夹内。上传文档为Excel格式。截止日期2015年1月27日12:30 延时组不得分（3分）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记分组在23:00左右公布当天“最佳小组”
+“最佳小组”为综合git使用状况，货币
+交易情况，各小组成员的得分情况而定。
+获得最佳小组队伍每人得5分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有且仅有一个总项目经理                              原四组的子项目经理仍保留
+teambition任务发布
+3分
+子项目经理在teambition “清华大学2015 XLP”项目的各自小组任务栏中发布任务，接受任务的成员在完成任务时通过teambition对任务反馈
+子项目经理必须通过teambition给每个人发布命令，少一人少得1分，每天最少1条，组员对给自己的任务进行反馈，有几条任务没有反馈，就少得几分，直至当天本项得分为零为止。截止到24:00。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teambition任务发布
+3分
+ 项目经理在teambition “清华大学2015 XLP”项目的各自小组任务栏中发布任务，接受任务的成员在完成任务时通过teambition对任务反馈
+项目经理必须通过teambition给每个人发布命令，少一人少得1分，每天最少1条，组员对给自己的任务进行反馈，有几条任务没有反馈，就少得几分，直至当天本项得分为零为止。截止到15:00。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">讨论过程中必须使用罗伯特议事规则，635书面头
+脑风暴模版和商业模式画布三种工具。（5分）
+讨论过程中各成员参与度、发言质量。（5分）
+每个小组都必须持有会议展开的记录（文字，相片，视频）
+等并且上传至teambition"清华大学 2015XLP"的
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\会议记录\第二次分组\第X组\某时间段内会议</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（2分）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">所有成员必须统一参与一次整组讨论，进行分工
+讨论过程中必须使用罗伯特议事规则，635书面头
+脑风暴模版和商业模式画布三种工具。（5分）
+讨论过程中各成员参与度、发言质量。（5分）
+必须持有会议展开的记录（文字，相片，视频等）
+并且上传至teambition"清华大学 2015XLP"的
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\会议记录\任务方合组\某时间段内会议</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（2分）
+项目经理上传任务分工文档到teambition"清华大学2015 XLP"项
+目中的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\团队组建\任务方合组\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">文件夹中。（2分）
+                                                              </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文档要求：必须至少分工四组                                      （即原组成员不变，但可以通过交易形成暂时的雇佣关系，被雇佣者仍隶属与原组，但需在任务分工文档中注明）                                                          各组专做宪章、微电影、网页、实物其中之一
+关于筹备组工作，                                              由项目经理决定其是否专干（不再参与原组的工作），
+若专干，则也需要在文档中说明和备注筹备组与全组成员之间的协议</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+截止日期2015年1月28日12:00  延时全组不得分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否评分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据顾老师的点评打分（15分）
+严格控制时间在要求时间之内，超时者不得分（3分）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">讨论过程中必须使用罗伯特议事规则，635书面头
+脑风暴模版和商业模式画布三种工具。（5分）
+讨论过程中各成员参与度、发言质量。（5分）
+每个小组都必须持有会议展开的记录（文字，相片，视频等）
+并且上传至teambition"清华大学 2015XLP"的
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\会议记录\第二次分组\第X组\某时间段内会议</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">（2分）
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据顾老师的点评打分（25分）
+严格控制时间在要求时间之内，超时者不得分（5分）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -786,7 +1695,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -807,6 +1716,22 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -855,7 +1780,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -865,66 +1790,55 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -960,10 +1874,10 @@
         <color rgb="FF7030A0"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1013,10 +1927,10 @@
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1026,10 +1940,10 @@
         <color theme="5" tint="-0.249977111117893"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1038,28 +1952,28 @@
         <color theme="5" tint="-0.249977111117893"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
         <color theme="5" tint="-0.249977111117893"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1095,10 +2009,10 @@
         <color theme="9" tint="-0.249977111117893"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1109,7 +2023,70 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF7030A0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF7030A0"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF7030A0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF7030A0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF7030A0"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF7030A0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF7030A0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1119,7 +2096,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1186,129 +2163,186 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1607,741 +2641,957 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EI47"/>
+  <dimension ref="A1:EH48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E44" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="L45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B46" sqref="B46:C46"/>
+      <selection pane="bottomRight" activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="34" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="34" customWidth="1"/>
     <col min="3" max="3" width="34.5" style="35" customWidth="1"/>
-    <col min="4" max="4" width="8.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.875" style="46" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="19.25" style="29" customWidth="1"/>
-    <col min="9" max="9" width="16.625" style="3" customWidth="1"/>
-    <col min="10" max="11" width="12.875" style="3" customWidth="1"/>
-    <col min="12" max="13" width="16.375" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="3"/>
+    <col min="4" max="4" width="8.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" style="42" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="3" customWidth="1"/>
+    <col min="9" max="10" width="12.83203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.5" style="58" customWidth="1"/>
+    <col min="13" max="13" width="19" style="58" customWidth="1"/>
+    <col min="14" max="14" width="58.6640625" style="61" customWidth="1"/>
+    <col min="15" max="15" width="49.6640625" style="80" customWidth="1"/>
+    <col min="16" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" s="17" customFormat="1">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="31" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>34</v>
+      <c r="G1" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>7</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+      <c r="L1" s="58" t="s">
+        <v>221</v>
+      </c>
+      <c r="M1" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="N1" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="O1" s="66" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" ht="24.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="33"/>
-      <c r="F2" s="41"/>
-      <c r="H2" s="23"/>
-    </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F2" s="37"/>
+      <c r="G2" s="23"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="67" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="75.75" customHeight="1">
       <c r="A3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="J3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="M3" s="65">
+        <v>6</v>
+      </c>
+      <c r="N3" s="62" t="s">
+        <v>196</v>
+      </c>
+      <c r="O3" s="68" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="45" customHeight="1">
+      <c r="A4" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="49"/>
+      <c r="D4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="F4" s="39"/>
+      <c r="G4" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="L4" s="59" t="s">
+        <v>184</v>
+      </c>
+      <c r="M4" s="65"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="69"/>
+    </row>
+    <row r="5" spans="1:15" s="5" customFormat="1" ht="161" customHeight="1">
+      <c r="A5" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="49"/>
+      <c r="D5" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="10"/>
+      <c r="L5" s="59" t="s">
+        <v>184</v>
+      </c>
+      <c r="M5" s="65"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="70"/>
+    </row>
+    <row r="6" spans="1:15" s="1" customFormat="1" ht="79" customHeight="1">
+      <c r="A6" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="25"/>
+      <c r="H6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="59" t="s">
+        <v>185</v>
+      </c>
+      <c r="M6" s="65"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="71" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="1" customFormat="1" ht="185" customHeight="1">
+      <c r="A7" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="49"/>
+      <c r="D7" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="59" t="s">
+        <v>185</v>
+      </c>
+      <c r="M7" s="65"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="72" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="5" customFormat="1" ht="48" customHeight="1">
+      <c r="A8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="49"/>
+      <c r="D8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="59" t="s">
+        <v>185</v>
+      </c>
+      <c r="M8" s="65"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="73" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="64.5" customHeight="1">
+      <c r="A9" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="49"/>
+      <c r="D9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="L9" s="59" t="s">
+        <v>184</v>
+      </c>
+      <c r="M9" s="65"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="74" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="5" customFormat="1" ht="64.5" customHeight="1">
+      <c r="A10" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="49"/>
+      <c r="D10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="25"/>
+      <c r="H10" s="9"/>
+      <c r="L10" s="59" t="s">
+        <v>184</v>
+      </c>
+      <c r="M10" s="65"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="74"/>
+    </row>
+    <row r="11" spans="1:15" s="5" customFormat="1" ht="117" customHeight="1">
+      <c r="A11" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="47"/>
+      <c r="D11" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="M11" s="65">
+        <v>8</v>
+      </c>
+      <c r="N11" s="63" t="s">
+        <v>197</v>
+      </c>
+      <c r="O11" s="74"/>
+    </row>
+    <row r="12" spans="1:15" s="5" customFormat="1" ht="108" customHeight="1">
+      <c r="A12" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="47"/>
+      <c r="D12" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="L12" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="M12" s="65">
+        <v>15</v>
+      </c>
+      <c r="N12" s="62" t="s">
+        <v>198</v>
+      </c>
+      <c r="O12" s="75"/>
+    </row>
+    <row r="13" spans="1:15" s="1" customFormat="1" ht="81" customHeight="1">
+      <c r="A13" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="47"/>
+      <c r="D13" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="M13" s="65">
+        <v>18</v>
+      </c>
+      <c r="N13" s="62" t="s">
+        <v>222</v>
+      </c>
+      <c r="O13" s="71"/>
+    </row>
+    <row r="14" spans="1:15" s="1" customFormat="1" ht="63" customHeight="1">
+      <c r="A14" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="49"/>
+      <c r="D14" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="39"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="2"/>
+      <c r="L14" s="59" t="s">
+        <v>184</v>
+      </c>
+      <c r="M14" s="65"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="71"/>
+    </row>
+    <row r="15" spans="1:15" s="1" customFormat="1" ht="40" customHeight="1">
+      <c r="A15" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="49"/>
+      <c r="D15" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="25"/>
+      <c r="H15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15" s="59" t="s">
+        <v>184</v>
+      </c>
+      <c r="M15" s="65"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="76" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="1" customFormat="1" ht="105.75" customHeight="1">
+      <c r="A16" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="47"/>
+      <c r="D16" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L16" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="M16" s="65">
+        <v>8</v>
+      </c>
+      <c r="N16" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="O16" s="77"/>
+    </row>
+    <row r="17" spans="1:138" s="1" customFormat="1" ht="107" customHeight="1">
+      <c r="A17" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="49"/>
+      <c r="D17" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="25"/>
+      <c r="H17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L17" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="M17" s="65">
+        <v>12</v>
+      </c>
+      <c r="N17" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="O17" s="78"/>
+    </row>
+    <row r="18" spans="1:138" s="5" customFormat="1" ht="126.75" customHeight="1">
+      <c r="A18" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="42" t="s">
+      <c r="C18" s="47"/>
+      <c r="D18" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="I3" s="10"/>
-      <c r="K3" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="F5" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="25" t="s">
+      <c r="E18" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="1:12" s="5" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="5" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="G12" s="37" t="s">
+      <c r="H18" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="L18" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="M18" s="65">
         <v>18</v>
       </c>
-      <c r="H12" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" s="53" t="s">
+      <c r="N18" s="62" t="s">
+        <v>222</v>
+      </c>
+      <c r="O18" s="71"/>
+    </row>
+    <row r="19" spans="1:138" s="5" customFormat="1" ht="126.75" customHeight="1">
+      <c r="A19" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="49"/>
+      <c r="D19" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="25"/>
+      <c r="L19" s="59" t="s">
+        <v>184</v>
+      </c>
+      <c r="M19" s="65"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="71"/>
+    </row>
+    <row r="20" spans="1:138" s="5" customFormat="1" ht="126.75" customHeight="1">
+      <c r="A20" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" s="43" t="s">
+      <c r="B20" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="47"/>
+      <c r="D20" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="G15" s="37"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:139" s="1" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="37"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:139" s="5" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="B18" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="G18" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:139" s="5" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="14" t="s">
+      <c r="G20" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="E19" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="F19" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="37"/>
-      <c r="H19" s="25"/>
-    </row>
-    <row r="20" spans="1:139" s="5" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="B20" s="53" t="s">
-        <v>116</v>
-      </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:139" s="11" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L20" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="M20" s="65">
+        <v>5</v>
+      </c>
+      <c r="N20" s="62" t="s">
+        <v>201</v>
+      </c>
+      <c r="O20" s="71" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:138" s="11" customFormat="1" ht="41.25" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="55"/>
-      <c r="C21" s="56"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="14"/>
       <c r="E21" s="20"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="26"/>
-    </row>
-    <row r="22" spans="1:139" s="1" customFormat="1" ht="119.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F21" s="40"/>
+      <c r="G21" s="26"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="71"/>
+    </row>
+    <row r="22" spans="1:138" s="1" customFormat="1" ht="149" customHeight="1">
       <c r="A22" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="55"/>
+      <c r="D22" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="39"/>
+      <c r="G22" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="L22" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="M22" s="65">
+        <v>2</v>
+      </c>
+      <c r="N22" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="O22" s="71" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:138" s="5" customFormat="1" ht="119.25" customHeight="1">
+      <c r="A23" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="47"/>
+      <c r="D23" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="M23" s="65">
+        <v>18</v>
+      </c>
+      <c r="N23" s="62" t="s">
+        <v>222</v>
+      </c>
+      <c r="O23" s="71"/>
+    </row>
+    <row r="24" spans="1:138" s="1" customFormat="1" ht="236" customHeight="1">
+      <c r="A24" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="49"/>
+      <c r="D24" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" s="25"/>
+      <c r="H24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="59" t="s">
+        <v>184</v>
+      </c>
+      <c r="M24" s="65"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="79" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:138" s="1" customFormat="1" ht="76" customHeight="1">
+      <c r="A25" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="49"/>
+      <c r="D25" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="B22" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" s="58"/>
-      <c r="D22" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="43"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:139" s="5" customFormat="1" ht="119.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="B23" s="53" t="s">
+      <c r="G25" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L25" s="59" t="s">
+        <v>184</v>
+      </c>
+      <c r="M25" s="65"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="71"/>
+    </row>
+    <row r="26" spans="1:138" s="2" customFormat="1" ht="121" customHeight="1">
+      <c r="A26" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:139" s="1" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="18" t="s">
+      <c r="B26" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="49"/>
+      <c r="D26" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="38"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="10"/>
+      <c r="L26" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="M26" s="65">
+        <v>12</v>
+      </c>
+      <c r="N26" s="62" t="s">
+        <v>219</v>
+      </c>
+      <c r="O26" s="71"/>
+    </row>
+    <row r="27" spans="1:138" s="2" customFormat="1" ht="116.25" customHeight="1">
+      <c r="A27" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="49"/>
+      <c r="D27" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="B24" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="43" t="s">
+      <c r="F27" s="38"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="10"/>
+      <c r="L27" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="M27" s="65"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="71"/>
+    </row>
+    <row r="28" spans="1:138" s="10" customFormat="1" ht="116.25" customHeight="1">
+      <c r="A28" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:139" s="1" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="B25" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="C25" s="50"/>
-      <c r="D25" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="G25" s="37"/>
-      <c r="H25" s="25" t="s">
+      <c r="B28" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="47"/>
+      <c r="D28" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="G28" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:139" s="2" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="B26" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="42"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="10"/>
-    </row>
-    <row r="27" spans="1:139" s="2" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="B27" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="C27" s="50"/>
-      <c r="D27" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="F27" s="42"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="10"/>
-    </row>
-    <row r="28" spans="1:139" s="10" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="B28" s="53" t="s">
+      <c r="H28" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" s="59" t="s">
+        <v>184</v>
+      </c>
+      <c r="M28" s="65">
+        <v>18</v>
+      </c>
+      <c r="N28" s="62" t="s">
+        <v>222</v>
+      </c>
+      <c r="O28" s="71"/>
+    </row>
+    <row r="29" spans="1:138" s="10" customFormat="1" ht="116.25" customHeight="1">
+      <c r="A29" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" s="49"/>
+      <c r="D29" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" s="38"/>
+      <c r="G29" s="27"/>
+      <c r="L29" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="M29" s="65">
+        <v>12</v>
+      </c>
+      <c r="N29" s="62" t="s">
+        <v>223</v>
+      </c>
+      <c r="O29" s="71"/>
+    </row>
+    <row r="30" spans="1:138" s="10" customFormat="1" ht="116.25" customHeight="1">
+      <c r="A30" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="13" t="s">
+      <c r="B30" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="F28" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="G28" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="H28" s="27" t="s">
+      <c r="C30" s="47"/>
+      <c r="D30" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="I28" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:139" s="10" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="B29" s="49" t="s">
-        <v>145</v>
-      </c>
-      <c r="C29" s="50"/>
-      <c r="D29" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="F29" s="42"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="27"/>
-    </row>
-    <row r="30" spans="1:139" s="10" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="B30" s="53" t="s">
-        <v>148</v>
-      </c>
-      <c r="C30" s="54"/>
-      <c r="D30" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="F30" s="42"/>
-      <c r="G30" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="H30" s="27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:139" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F30" s="38"/>
+      <c r="G30" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="L30" s="59" t="s">
+        <v>185</v>
+      </c>
+      <c r="M30" s="65">
+        <v>5</v>
+      </c>
+      <c r="N30" s="62" t="s">
+        <v>202</v>
+      </c>
+      <c r="O30" s="71" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="31" spans="1:138" s="11" customFormat="1" ht="33" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="55"/>
-      <c r="C31" s="56"/>
+        <v>21</v>
+      </c>
+      <c r="B31" s="50"/>
+      <c r="C31" s="51"/>
       <c r="D31" s="19"/>
       <c r="E31" s="21"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="28"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="12"/>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
+      <c r="L31" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="M31" s="65"/>
+      <c r="N31" s="62"/>
+      <c r="O31" s="71"/>
       <c r="P31" s="12"/>
       <c r="Q31" s="12"/>
       <c r="R31" s="12"/>
@@ -2465,204 +3715,263 @@
       <c r="EF31" s="12"/>
       <c r="EG31" s="12"/>
       <c r="EH31" s="12"/>
-      <c r="EI31" s="12"/>
-    </row>
-    <row r="32" spans="1:139" s="2" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:138" s="2" customFormat="1" ht="59" customHeight="1">
       <c r="A32" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B32" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="C32" s="50"/>
+        <v>112</v>
+      </c>
+      <c r="B32" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" s="49"/>
       <c r="D32" s="14"/>
       <c r="E32" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="F32" s="38"/>
+      <c r="G32" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L32" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="M32" s="65">
+        <v>2</v>
+      </c>
+      <c r="N32" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="O32" s="71"/>
+    </row>
+    <row r="33" spans="1:138" s="2" customFormat="1" ht="111" customHeight="1">
+      <c r="A33" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="F32" s="42"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="27" t="s">
+      <c r="C33" s="47"/>
+      <c r="D33" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="F33" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L33" s="59"/>
+      <c r="M33" s="65">
+        <v>25</v>
+      </c>
+      <c r="N33" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="O33" s="71"/>
+    </row>
+    <row r="34" spans="1:138" s="1" customFormat="1" ht="182" customHeight="1">
+      <c r="A34" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="C34" s="49"/>
+      <c r="D34" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L34" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="M34" s="65"/>
+      <c r="N34" s="62"/>
+      <c r="O34" s="71" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="35" spans="1:138" s="1" customFormat="1" ht="314" customHeight="1">
+      <c r="A35" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B35" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="C35" s="49"/>
+      <c r="D35" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="39"/>
+      <c r="G35" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="I32" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:139" s="2" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="B33" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="C33" s="54"/>
-      <c r="D33" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="F33" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="G33" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="H33" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:139" s="1" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="18" t="s">
+      <c r="L35" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="M35" s="65">
+        <v>14</v>
+      </c>
+      <c r="N35" s="62" t="s">
+        <v>220</v>
+      </c>
+      <c r="O35" s="71"/>
+    </row>
+    <row r="36" spans="1:138" s="5" customFormat="1" ht="102" customHeight="1">
+      <c r="A36" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="B36" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="49"/>
+      <c r="D36" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="39"/>
+      <c r="G36" s="25"/>
+      <c r="L36" s="59" t="s">
+        <v>185</v>
+      </c>
+      <c r="M36" s="65"/>
+      <c r="N36" s="62"/>
+      <c r="O36" s="71"/>
+    </row>
+    <row r="37" spans="1:138" s="5" customFormat="1" ht="102" customHeight="1">
+      <c r="A37" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="B37" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="B34" s="49" t="s">
-        <v>159</v>
-      </c>
-      <c r="C34" s="50"/>
-      <c r="D34" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="G34" s="37"/>
-      <c r="H34" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="I34" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="35" spans="1:139" s="1" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="B35" s="49" t="s">
+      <c r="C37" s="49"/>
+      <c r="D37" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F37" s="39"/>
+      <c r="G37" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="C35" s="50"/>
-      <c r="D35" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="43"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="25" t="s">
+      <c r="L37" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="M37" s="65"/>
+      <c r="N37" s="64" t="s">
+        <v>203</v>
+      </c>
+      <c r="O37" s="71"/>
+    </row>
+    <row r="38" spans="1:138" s="5" customFormat="1" ht="102" customHeight="1">
+      <c r="A38" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B38" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" s="47"/>
+      <c r="D38" s="16" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="36" spans="1:139" s="5" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="B36" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="C36" s="50"/>
-      <c r="D36" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="43"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="25"/>
-    </row>
-    <row r="37" spans="1:139" s="5" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="18" t="s">
+      <c r="E38" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="F38" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="G38" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L38" s="59" t="s">
+        <v>185</v>
+      </c>
+      <c r="M38" s="65">
+        <v>30</v>
+      </c>
+      <c r="N38" s="62" t="s">
+        <v>224</v>
+      </c>
+      <c r="O38" s="71"/>
+    </row>
+    <row r="39" spans="1:138" s="5" customFormat="1" ht="102" customHeight="1">
+      <c r="A39" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="B37" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="C37" s="50"/>
-      <c r="D37" s="16" t="s">
+      <c r="B39" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="E37" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="F37" s="43"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="25" t="s">
+      <c r="C39" s="49"/>
+      <c r="D39" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F39" s="39"/>
+      <c r="G39" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="L39" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="M39" s="65">
+        <v>5</v>
+      </c>
+      <c r="N39" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="O39" s="71"/>
+    </row>
+    <row r="40" spans="1:138" s="11" customFormat="1" ht="33" customHeight="1">
+      <c r="A40" s="7" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="38" spans="1:139" s="5" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="B38" s="53" t="s">
-        <v>169</v>
-      </c>
-      <c r="C38" s="54"/>
-      <c r="D38" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="F38" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="G38" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="H38" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="I38" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:139" s="5" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="B39" s="49" t="s">
-        <v>173</v>
-      </c>
-      <c r="C39" s="50"/>
-      <c r="D39" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="F39" s="43"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="25" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="40" spans="1:139" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B40" s="55"/>
-      <c r="C40" s="56"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="51"/>
       <c r="D40" s="19"/>
       <c r="E40" s="21"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="28"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="12"/>
       <c r="I40" s="12"/>
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
+      <c r="L40" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="M40" s="65"/>
+      <c r="N40" s="62"/>
+      <c r="O40" s="71"/>
       <c r="P40" s="12"/>
       <c r="Q40" s="12"/>
       <c r="R40" s="12"/>
@@ -2786,164 +4095,232 @@
       <c r="EF40" s="12"/>
       <c r="EG40" s="12"/>
       <c r="EH40" s="12"/>
-      <c r="EI40" s="12"/>
-    </row>
-    <row r="41" spans="1:139" s="5" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:138" s="5" customFormat="1" ht="167" customHeight="1">
       <c r="A41" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="B41" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="C41" s="49"/>
+      <c r="D41" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F41" s="39"/>
+      <c r="G41" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L41" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="M41" s="65">
+        <v>2</v>
+      </c>
+      <c r="N41" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="O41" s="71" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="42" spans="1:138" s="5" customFormat="1" ht="102" customHeight="1">
+      <c r="A42" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B42" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" s="47"/>
+      <c r="D42" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="F42" s="39"/>
+      <c r="G42" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L42" s="59"/>
+      <c r="M42" s="65">
+        <v>30</v>
+      </c>
+      <c r="N42" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="O42" s="71"/>
+    </row>
+    <row r="43" spans="1:138" s="5" customFormat="1" ht="166" customHeight="1">
+      <c r="A43" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B43" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="C43" s="49"/>
+      <c r="D43" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F43" s="39"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="10"/>
+      <c r="L43" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="M43" s="65">
+        <v>12</v>
+      </c>
+      <c r="N43" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="O43" s="71"/>
+    </row>
+    <row r="44" spans="1:138" s="5" customFormat="1" ht="102" customHeight="1">
+      <c r="A44" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="B41" s="49" t="s">
+      <c r="B44" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="C41" s="50"/>
-      <c r="D41" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="F41" s="43"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:139" s="5" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="18" t="s">
+      <c r="C44" s="49"/>
+      <c r="D44" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F44" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="B42" s="53" t="s">
+      <c r="G44" s="27"/>
+      <c r="H44" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L44" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="M44" s="65">
+        <v>10</v>
+      </c>
+      <c r="N44" s="62" t="s">
+        <v>204</v>
+      </c>
+      <c r="O44" s="71"/>
+    </row>
+    <row r="45" spans="1:138" s="5" customFormat="1" ht="102" customHeight="1">
+      <c r="A45" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="C42" s="54"/>
-      <c r="D42" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="F42" s="43"/>
-      <c r="G42" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="H42" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="I42" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="1:139" s="5" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="18" t="s">
+      <c r="B45" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="B43" s="49" t="s">
-        <v>180</v>
-      </c>
-      <c r="C43" s="50"/>
-      <c r="D43" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="F43" s="43"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="10"/>
-    </row>
-    <row r="44" spans="1:139" s="5" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="B44" s="49" t="s">
-        <v>182</v>
-      </c>
-      <c r="C44" s="50"/>
-      <c r="D44" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="F44" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="G44" s="37"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="1:139" s="5" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="B45" s="49" t="s">
-        <v>185</v>
-      </c>
-      <c r="C45" s="50"/>
+      <c r="C45" s="49"/>
       <c r="D45" s="16"/>
       <c r="E45" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="F45" s="43"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="10"/>
-    </row>
-    <row r="46" spans="1:139" s="5" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+      <c r="F45" s="39"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="10"/>
+      <c r="L45" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="M45" s="65"/>
+      <c r="N45" s="62"/>
+      <c r="O45" s="71"/>
+    </row>
+    <row r="46" spans="1:138" s="5" customFormat="1" ht="232" customHeight="1">
       <c r="A46" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="B46" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="C46" s="47"/>
+      <c r="D46" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F46" s="39"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L46" s="59" t="s">
         <v>186</v>
       </c>
-      <c r="B46" s="53" t="s">
-        <v>187</v>
-      </c>
-      <c r="C46" s="54"/>
-      <c r="D46" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="F46" s="43"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="1:139" s="5" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M46" s="58">
+        <v>35</v>
+      </c>
+      <c r="N46" s="61" t="s">
+        <v>193</v>
+      </c>
+      <c r="O46" s="80"/>
+    </row>
+    <row r="47" spans="1:138" s="5" customFormat="1" ht="102" customHeight="1">
       <c r="A47" s="18"/>
-      <c r="B47" s="49" t="s">
-        <v>163</v>
-      </c>
-      <c r="C47" s="50"/>
+      <c r="B47" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="C47" s="49"/>
       <c r="D47" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="43"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="25"/>
+        <v>11</v>
+      </c>
+      <c r="F47" s="39"/>
+      <c r="G47" s="25"/>
+      <c r="L47" s="59" t="s">
+        <v>185</v>
+      </c>
+      <c r="M47" s="58"/>
+      <c r="N47" s="61"/>
+      <c r="O47" s="80"/>
+    </row>
+    <row r="48" spans="1:138">
+      <c r="L48" s="58" t="s">
+        <v>186</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
+  <mergeCells count="47">
+    <mergeCell ref="O3:O5"/>
+    <mergeCell ref="O15:O17"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
@@ -2960,29 +4337,25 @@
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2994,11 +4367,16 @@
       <selection sqref="A1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3008,10 +4386,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>